--- a/SI_fotos.xlsx
+++ b/SI_fotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFLORES\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,15 +425,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,7 +2154,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="212.25" x14ac:dyDescent="1.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2187,20 +2187,20 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A3" s="22">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
       <c r="B3" s="9"/>
@@ -2226,7 +2226,7 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="9"/>
@@ -2252,7 +2252,7 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A5" s="22">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="9"/>
@@ -2278,7 +2278,7 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
@@ -2304,7 +2304,7 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A7" s="22">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="9"/>
@@ -2330,7 +2330,7 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="9"/>
@@ -2356,7 +2356,7 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A9" s="22">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="9"/>
@@ -2382,7 +2382,7 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="9"/>
@@ -2408,7 +2408,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A11" s="22">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
       <c r="B11" s="9"/>
@@ -2434,7 +2434,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="9"/>
@@ -2460,18 +2460,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
       <c r="B14" s="9"/>
@@ -2497,7 +2497,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
       <c r="B15" s="9"/>
@@ -2513,7 +2513,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
@@ -2529,7 +2529,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
       <c r="B17" s="9"/>
@@ -2545,7 +2545,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A18" s="19">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
       <c r="B18" s="9"/>
@@ -2561,7 +2561,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A19" s="19">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
       <c r="B19" s="9"/>
@@ -2577,7 +2577,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
       <c r="B20" s="9"/>
@@ -2593,7 +2593,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A21" s="19">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
       <c r="B21" s="9"/>
@@ -2609,7 +2609,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A22" s="19">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2637,7 +2637,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -2665,7 +2665,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A24" s="19">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
       <c r="B24" s="9"/>
@@ -2691,7 +2691,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A25" s="19">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
       <c r="B25" s="9"/>
@@ -2717,7 +2717,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
       <c r="B26" s="9"/>
@@ -2743,7 +2743,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A27" s="19">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
       <c r="B27" s="9"/>
@@ -2769,7 +2769,7 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>25</v>
       </c>
       <c r="B28" s="9"/>
@@ -2795,7 +2795,7 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A29" s="19">
+      <c r="A29" s="18">
         <v>26</v>
       </c>
       <c r="B29" s="9"/>
@@ -2821,7 +2821,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>27</v>
       </c>
       <c r="B30" s="9"/>
@@ -2847,7 +2847,7 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A31" s="19">
+      <c r="A31" s="18">
         <v>28</v>
       </c>
       <c r="B31" s="9"/>
@@ -2873,7 +2873,7 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A32" s="19">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
       <c r="B32" s="9"/>
@@ -2899,7 +2899,7 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A33" s="19">
+      <c r="A33" s="18">
         <v>30</v>
       </c>
       <c r="B33" s="9"/>

--- a/SI_fotos.xlsx
+++ b/SI_fotos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anroq\Documents\GitHub\Trabajo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E589C1F-209F-43A6-87AF-4EE629C85C38}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>Activos</t>
   </si>
@@ -225,12 +226,24 @@
   </si>
   <si>
     <t>Proyector</t>
+  </si>
+  <si>
+    <t>La pc al ser un dispositivo electronico, es vulnerable a corte y apagado indeseado</t>
+  </si>
+  <si>
+    <t>Al haber botellas de agua, se podria caer y derramar encima de la pc y dañar los perifericos principales y el cpu mismo</t>
+  </si>
+  <si>
+    <t>Al estar a la orilla de la mesa se puede caer y romper ya que es un aparato facil de dañarse</t>
+  </si>
+  <si>
+    <t>Cualquier persona puede pasar por alli,  empujar la radiofrecuencia y caer al suelo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,7 +481,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -511,7 +530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -554,7 +579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8"/>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -597,7 +628,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12"/>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -641,7 +678,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 15"/>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -685,7 +728,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagen 18"/>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -729,7 +778,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -773,7 +828,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagen 21"/>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -817,7 +878,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagen 22"/>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -860,7 +927,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23"/>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -903,7 +976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24"/>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -946,7 +1025,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25"/>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -990,7 +1075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagen 26"/>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1034,7 +1125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagen 29"/>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1078,7 +1175,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Imagen 30"/>
+        <xdr:cNvPr id="31" name="Imagen 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1121,7 +1224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagen 27"/>
+        <xdr:cNvPr id="28" name="Imagen 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1164,7 +1273,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1207,7 +1322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagen 28" descr="C:\Users\KFLORES\AppData\Local\Microsoft\Windows\INetCache\Content.Word\WhatsApp Image 2018-09-22 at 1.58.29 PM.JPEG"/>
+        <xdr:cNvPr id="29" name="Imagen 28" descr="C:\Users\KFLORES\AppData\Local\Microsoft\Windows\INetCache\Content.Word\WhatsApp Image 2018-09-22 at 1.58.29 PM.JPEG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1257,7 +1378,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagen 31"/>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1299,7 +1426,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32"/>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1341,7 +1474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagen 34"/>
+        <xdr:cNvPr id="35" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1383,7 +1522,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 23"/>
+        <xdr:cNvPr id="36" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1439,7 +1584,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 2"/>
+        <xdr:cNvPr id="37" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1495,7 +1646,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 5"/>
+        <xdr:cNvPr id="38" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1547,7 +1704,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 12"/>
+        <xdr:cNvPr id="39" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1599,7 +1762,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 9"/>
+        <xdr:cNvPr id="40" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1651,7 +1820,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 15"/>
+        <xdr:cNvPr id="41" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1707,7 +1882,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 23"/>
+        <xdr:cNvPr id="42" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
@@ -1763,7 +1944,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPr id="43" name="Imagen 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1805,7 +1992,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPr id="44" name="Imagen 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2131,14 +2324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D31" sqref="A14:H33"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2430,8 +2623,12 @@
       <c r="H11" s="14">
         <v>3</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="1.35">
       <c r="A12" s="20">
@@ -2456,8 +2653,12 @@
       <c r="H12" s="14">
         <v>4</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="22"/>
